--- a/medicine/Pharmacie/Zimélidine/Zimélidine.xlsx
+++ b/medicine/Pharmacie/Zimélidine/Zimélidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zim%C3%A9lidine</t>
+          <t>Zimélidine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La zimélidine a été le premier antidépresseur inhibiteur sélectif de la recapture de la sérotonine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zim%C3%A9lidine</t>
+          <t>Zimélidine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été développée au début des années 1980 par la compagnie suédoise Astra AB dans le cadre de recherches sur des molécules ayant une structure similaire à la chlorphéniramine, un antihistaminique ayant une activité antidépressive.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zim%C3%A9lidine</t>
+          <t>Zimélidine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mise sur le marché</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La zimélidine a été interdite en raison de risques sérieux voire mortels de neuropathies notamment le syndrome de Guillain-Barré. De plus, il semble qu'elle augmentait les risques de passage à l'acte suicidaire. Après son interdiction, elle a été remplacée par d'autres inhibiteurs sélectifs de la recapture de la sérotonine.
 </t>
